--- a/data/trans_dic/P79A_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P79A_R-Clase-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.005684246831041793</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.008278459442876959</v>
+        <v>0.008278459442876957</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.006903694502251042</v>
+        <v>0.00690369450225104</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001332827641341211</v>
+        <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002638841267587438</v>
+        <v>0.002128694782522509</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002987000397491115</v>
+        <v>0.002971617622217319</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01645779242138342</v>
+        <v>0.01449052218203429</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02252392154203377</v>
+        <v>0.02174249303553318</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01462109318611397</v>
+        <v>0.01508372907761589</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.005576479563689003</v>
+        <v>0.005576479563689002</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.01276323133808003</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.005747262953583017</v>
+        <v>0.005044259049309276</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004362287217402468</v>
+        <v>0.004332395519736365</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02267333489058293</v>
+        <v>0.01975915202895241</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02584446083487654</v>
+        <v>0.0234953490248801</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01690213891813626</v>
+        <v>0.0173278218389354</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01269795236764548</v>
+        <v>0.01341147020319013</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003184903999501359</v>
+        <v>0.003178248489086242</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0122477042825018</v>
+        <v>0.01174230547320224</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04618816297535864</v>
+        <v>0.04522890232065315</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02964366279766068</v>
+        <v>0.02964404169064553</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03571831729804129</v>
+        <v>0.03876989634110044</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.01558102533470362</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.02577663977533513</v>
+        <v>0.02577663977533514</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02235044596325128</v>
+        <v>0.02247695742770668</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.009471400590080491</v>
+        <v>0.009547531582272966</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01827088053627195</v>
+        <v>0.01810537689301436</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05009224762938761</v>
+        <v>0.05181986512424108</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02494146144577233</v>
+        <v>0.02440336293834923</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03587219270037255</v>
+        <v>0.03527932987247362</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.0350462979079553</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.04013977424083465</v>
+        <v>0.04013977424083464</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03092417570203135</v>
+        <v>0.02919737728185535</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02470174312670017</v>
+        <v>0.02351863726915972</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02982888013420033</v>
+        <v>0.0308484482095869</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07718922763379325</v>
+        <v>0.07466784237709989</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05289066325800567</v>
+        <v>0.05142226902061044</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0559044342297446</v>
+        <v>0.0563865932021799</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.03031526657169512</v>
+        <v>0.03031526657169513</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.02366564629581023</v>
@@ -857,10 +857,10 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.0192542871091117</v>
+        <v>0.01878136304426368</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0151947134652944</v>
+        <v>0.01414798354029306</v>
       </c>
     </row>
     <row r="21">
@@ -872,10 +872,10 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.04625335656428105</v>
+        <v>0.04639872181328249</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03764462703724925</v>
+        <v>0.03598997871682121</v>
       </c>
     </row>
     <row r="22">
@@ -893,7 +893,7 @@
         <v>0.02405622206640683</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.021913523337603</v>
+        <v>0.02191352333760301</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.02295567158267809</v>
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01830037747327288</v>
+        <v>0.01851421431378744</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01746786618616557</v>
+        <v>0.01778913658108318</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01926352484763398</v>
+        <v>0.01925289719266497</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03196899008713544</v>
+        <v>0.03148929245842235</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02768542629115902</v>
+        <v>0.02734982993306909</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02815390539954071</v>
+        <v>0.02730024173828365</v>
       </c>
     </row>
     <row r="25">
@@ -1074,13 +1074,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>734</v>
+        <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1289</v>
+        <v>1040</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3104</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="7">
@@ -1091,13 +1091,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9062</v>
+        <v>7979</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11001</v>
+        <v>10619</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15192</v>
+        <v>15672</v>
       </c>
     </row>
     <row r="8">
@@ -1149,10 +1149,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2432</v>
+        <v>2134</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3954</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="11">
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10956</v>
+        <v>9548</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10936</v>
+        <v>9942</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>15319</v>
+        <v>15705</v>
       </c>
     </row>
     <row r="12">
@@ -1218,13 +1218,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5989</v>
+        <v>6325</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8073</v>
+        <v>7739</v>
       </c>
     </row>
     <row r="15">
@@ -1235,13 +1235,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21783</v>
+        <v>21330</v>
       </c>
       <c r="D15" s="6" t="n">
         <v>5558</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23542</v>
+        <v>25554</v>
       </c>
     </row>
     <row r="16">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>25297</v>
+        <v>25440</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8157</v>
+        <v>8222</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>36415</v>
+        <v>36085</v>
       </c>
     </row>
     <row r="19">
@@ -1307,13 +1307,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>56697</v>
+        <v>58652</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>21480</v>
+        <v>21016</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>71495</v>
+        <v>70314</v>
       </c>
     </row>
     <row r="20">
@@ -1362,13 +1362,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>17564</v>
+        <v>16583</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>20523</v>
+        <v>19540</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>41725</v>
+        <v>43151</v>
       </c>
     </row>
     <row r="23">
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>43841</v>
+        <v>42409</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>43944</v>
+        <v>42724</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>78200</v>
+        <v>78874</v>
       </c>
     </row>
     <row r="24">
@@ -1435,10 +1435,10 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>16256</v>
+        <v>15857</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>16433</v>
+        <v>15301</v>
       </c>
     </row>
     <row r="27">
@@ -1450,10 +1450,10 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>39051</v>
+        <v>39174</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>40713</v>
+        <v>38923</v>
       </c>
     </row>
     <row r="28">
@@ -1502,13 +1502,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>62999</v>
+        <v>63735</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>63503</v>
+        <v>64671</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>136345</v>
+        <v>136269</v>
       </c>
     </row>
     <row r="31">
@@ -1519,13 +1519,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>110052</v>
+        <v>108401</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>100647</v>
+        <v>99427</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>199270</v>
+        <v>193228</v>
       </c>
     </row>
     <row r="32">
